--- a/exemple-liste-personnes.xlsx
+++ b/exemple-liste-personnes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">Briquet</t>
@@ -173,10 +167,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.98"/>
@@ -211,97 +205,97 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
